--- a/Monte Carlo/outputs/Monte Carlo Model 60 Months.xlsx
+++ b/Monte Carlo/outputs/Monte Carlo Model 60 Months.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Personal\Github\Monte Carlo\monte-carlo-covenant-engine\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Personal\Github\Monte Carlo\Monte Carlo\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00B726B-89A3-4117-A2A2-3DB5CC7E60F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5451D808-B89A-4907-9575-712E127E42D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Assumptions" sheetId="4" r:id="rId4"/>
     <sheet name="Covenant Definitions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="201">
   <si>
     <t>Monte Carlo Debt Analysis – Executive Summary</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Covenant</t>
   </si>
   <si>
+    <t>P Value</t>
+  </si>
+  <si>
     <t>12 Months</t>
   </si>
   <si>
@@ -99,16 +102,16 @@
     <t>48 Months</t>
   </si>
   <si>
-    <t>Current Ratio ≥ 1.25</t>
-  </si>
-  <si>
-    <t>DSCR TTM ≥ 1.30</t>
+    <t>Current Ratio ≥ 1.42</t>
+  </si>
+  <si>
+    <t>DSCR TTM ≥ 4.50</t>
   </si>
   <si>
     <t>Funded Debt / EBITDA</t>
   </si>
   <si>
-    <t>Global DSCR ≥ 2.0</t>
+    <t>Global DSCR ≥ 3.7</t>
   </si>
   <si>
     <t>Compensating Balance</t>
@@ -120,10 +123,13 @@
     <t>Cash &lt; 0 (At Any Point)</t>
   </si>
   <si>
+    <t>* Debt Assumed – Business pays all debt service. Global DSCR includes personal debt.</t>
+  </si>
+  <si>
     <t>Business Debt – Monte Carlo Results</t>
   </si>
   <si>
-    <t>Meridian Financial Services</t>
+    <t>ABC Financial Services</t>
   </si>
   <si>
     <t>Non-Personal Debt Considered For Covenants</t>
@@ -147,7 +153,7 @@
     <t>P50 DSCR</t>
   </si>
   <si>
-    <t>P (DSCR &lt; 1.3)</t>
+    <t>P(DSCR&lt;4.50)</t>
   </si>
   <si>
     <t>P50 D/EBITDA</t>
@@ -159,7 +165,7 @@
     <t>P50 GDSCR</t>
   </si>
   <si>
-    <t>P (GDSCR &lt; 2)</t>
+    <t>P(GDSCR&lt;3.7)</t>
   </si>
   <si>
     <t>Loan1 Bal</t>
@@ -171,9 +177,6 @@
     <t>LOC Bal</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>* Cumulative breach probabilities through each checkpoint month</t>
   </si>
   <si>
@@ -615,7 +618,7 @@
     <t>Borrower DSCR:</t>
   </si>
   <si>
-    <t>Term sheet states "Borrowers to maintain..." for both covenants. "Borrowers" is defined as Meridian Financial Services &amp; Meridian Capital (business entities only). The $2.5M guarantor note (Loan2) is excluded from these calculations as it is personal debt of the Guarantors, not debt of the Borrowers.</t>
+    <t>Term sheet states "Borrowers to maintain..." for both covenants. "Borrowers" is defined as ABC Financial Services &amp; ABC Capital (business entities only). The $2.5M guarantor note (Loan2) is excluded from these calculations as it is personal debt of the Guarantors, not debt of the Borrowers.</t>
   </si>
   <si>
     <t>Funded Debt / EBITDA:</t>
@@ -637,27 +640,6 @@
   </si>
   <si>
     <t>Lender Term Sheet &amp; Lender Correspondence</t>
-  </si>
-  <si>
-    <t>Funded Debt / EBITDA - Mo. Rev Increase to Cure</t>
-  </si>
-  <si>
-    <t>Funded Debt / EBITDA - Mo. Exp Decrease to Cure</t>
-  </si>
-  <si>
-    <t>Global DSCR - Monthly Revenue Increase to Cure</t>
-  </si>
-  <si>
-    <t>Global DSCR - Monthly Expense Decrease to Cure</t>
-  </si>
-  <si>
-    <t>* Required revenue or expense changes reflect the minimum standalone adjustment to keep covenant breach probability at or below 15% under modeled scenarios; figures are not additive.</t>
-  </si>
-  <si>
-    <t>** Revenue higher due to uncertainty (modeled).</t>
-  </si>
-  <si>
-    <t>*** Debt Assumed – Business pays all debt service. Global DSCR includes personal debt.</t>
   </si>
 </sst>
 </file>
@@ -833,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1101,66 +1083,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14990691854609822"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1168,7 +1090,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1351,33 +1273,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1767,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:M35"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1779,7 +1674,7 @@
     <col min="2" max="2" width="2.7109375" style="50" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" style="50" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="50" customWidth="1"/>
     <col min="6" max="10" width="26" style="50" customWidth="1"/>
     <col min="11" max="11" width="23.140625" style="50" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="50" customWidth="1"/>
@@ -1830,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="62">
-        <v>2961075</v>
+        <v>15562092</v>
       </c>
       <c r="E8" s="63"/>
     </row>
@@ -1838,8 +1733,8 @@
       <c r="C9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="64">
-        <v>378165</v>
+      <c r="D9" s="62">
+        <v>2239006</v>
       </c>
       <c r="E9" s="63"/>
     </row>
@@ -1847,8 +1742,8 @@
       <c r="C10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="64">
-        <v>234795</v>
+      <c r="D10" s="62">
+        <v>1234513</v>
       </c>
       <c r="E10" s="63"/>
     </row>
@@ -1857,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="64">
-        <v>143370</v>
+        <v>981509</v>
       </c>
       <c r="E11" s="63"/>
     </row>
@@ -1897,22 +1792,24 @@
       <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>10</v>
@@ -1936,27 +1833,27 @@
     <row r="18" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
       <c r="F18" s="57">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="G18" s="57">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="H18" s="57">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="I18" s="57">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="J18" s="57">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="K18" s="58">
-        <v>0</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="L18" s="71"/>
       <c r="M18" s="11"/>
@@ -1964,27 +1861,27 @@
     <row r="19" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
       <c r="F19" s="57">
-        <v>0</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="G19" s="57">
-        <v>0</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="H19" s="57">
-        <v>0</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="I19" s="57">
-        <v>0</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="J19" s="57">
-        <v>0</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="K19" s="58">
-        <v>0</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="L19" s="71"/>
       <c r="M19" s="11"/>
@@ -1992,27 +1889,27 @@
     <row r="20" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
       <c r="F20" s="57">
-        <v>0</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="G20" s="57">
-        <v>0</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="H20" s="57">
-        <v>0</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="I20" s="57">
-        <v>0</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="J20" s="57">
-        <v>0</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="K20" s="58">
-        <v>0</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="L20" s="71"/>
       <c r="M20" s="11"/>
@@ -2020,27 +1917,27 @@
     <row r="21" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
       <c r="C21" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
       <c r="F21" s="57">
-        <v>0</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="G21" s="57">
-        <v>0</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="H21" s="57">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="I21" s="57">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="J21" s="57">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="K21" s="58">
-        <v>0</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="L21" s="71"/>
       <c r="M21" s="11"/>
@@ -2048,265 +1945,118 @@
     <row r="22" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="C22" s="54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
       <c r="F22" s="57">
-        <v>0</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="G22" s="57">
-        <v>0</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="H22" s="57">
-        <v>0</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="I22" s="57">
-        <v>0</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="J22" s="57">
-        <v>0</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="K22" s="58">
-        <v>0</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="L22" s="71"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="55" t="s">
-        <v>25</v>
+      <c r="C23" s="54" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="70"/>
-      <c r="E23" s="95"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="57">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G23" s="57">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="H23" s="57">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="I23" s="57">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="J23" s="57">
-        <v>0</v>
-      </c>
-      <c r="K23" s="96">
-        <v>0</v>
-      </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="88"/>
-    </row>
-    <row r="24" spans="2:13" s="50" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="K23" s="58">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L23" s="71"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="88"/>
-    </row>
-    <row r="25" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="57">
-        <v>0</v>
-      </c>
-      <c r="G25" s="57">
-        <v>0</v>
-      </c>
-      <c r="H25" s="57">
-        <v>0</v>
-      </c>
-      <c r="I25" s="57">
-        <v>0</v>
-      </c>
-      <c r="J25" s="57">
-        <v>0</v>
-      </c>
-      <c r="K25" s="58">
-        <v>0</v>
-      </c>
-      <c r="L25" s="71"/>
+      <c r="C24" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="57">
+        <v>0</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0</v>
+      </c>
+      <c r="I24" s="57">
+        <v>0</v>
+      </c>
+      <c r="J24" s="57">
+        <v>0</v>
+      </c>
+      <c r="K24" s="58">
+        <v>0</v>
+      </c>
+      <c r="L24" s="71"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="2:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+    <row r="26" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="54"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="2:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="D26" s="73"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="97">
-        <v>0</v>
-      </c>
-      <c r="G27" s="97">
-        <v>0</v>
-      </c>
-      <c r="H27" s="97">
-        <v>0</v>
-      </c>
-      <c r="I27" s="97">
-        <v>0</v>
-      </c>
-      <c r="J27" s="97">
-        <v>0</v>
-      </c>
-      <c r="K27" s="98">
-        <v>0</v>
-      </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="2:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="97">
-        <v>0</v>
-      </c>
-      <c r="G28" s="97">
-        <v>0</v>
-      </c>
-      <c r="H28" s="97">
-        <v>0</v>
-      </c>
-      <c r="I28" s="97">
-        <v>0</v>
-      </c>
-      <c r="J28" s="97">
-        <v>0</v>
-      </c>
-      <c r="K28" s="98">
-        <v>0</v>
-      </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="2:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="97">
-        <v>0</v>
-      </c>
-      <c r="G29" s="97">
-        <v>0</v>
-      </c>
-      <c r="H29" s="97">
-        <v>0</v>
-      </c>
-      <c r="I29" s="97">
-        <v>0</v>
-      </c>
-      <c r="J29" s="97">
-        <v>0</v>
-      </c>
-      <c r="K29" s="98">
-        <v>0</v>
-      </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="2:13" s="50" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="97">
-        <v>0</v>
-      </c>
-      <c r="G30" s="97">
-        <v>0</v>
-      </c>
-      <c r="H30" s="97">
-        <v>0</v>
-      </c>
-      <c r="I30" s="97">
-        <v>0</v>
-      </c>
-      <c r="J30" s="97">
-        <v>0</v>
-      </c>
-      <c r="K30" s="98">
-        <v>0</v>
-      </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="12"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="54"/>
-      <c r="D32" s="73"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="33" spans="3:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C34" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="27" t="s">
-        <v>206</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2315,6 +2065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -2330,13 +2081,13 @@
     <row r="1" spans="1:16" s="14" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" s="17"/>
     </row>
@@ -2358,7 +2109,7 @@
     <row r="6" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2368,46 +2119,46 @@
       <c r="A8" s="14"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2431,40 +2182,40 @@
         <v>12</v>
       </c>
       <c r="D10" s="76">
-        <v>1496849</v>
+        <v>6957337</v>
       </c>
       <c r="E10" s="76">
-        <v>1111728</v>
+        <v>4070125</v>
       </c>
       <c r="F10" s="76">
-        <v>193683</v>
+        <v>1247059</v>
       </c>
       <c r="G10" s="77">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H10" s="34">
-        <v>6.62</v>
+        <v>6.87</v>
       </c>
       <c r="I10" s="77">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J10" s="34">
-        <v>0.35</v>
+        <v>0.3543</v>
       </c>
       <c r="K10" s="77">
-        <v>0</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="L10" s="34">
-        <v>4.55</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="M10" s="77">
-        <v>0</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="N10" s="78">
-        <v>755329</v>
+        <v>4146147</v>
       </c>
       <c r="O10" s="79">
-        <v>1903189</v>
+        <v>9802634</v>
       </c>
       <c r="P10" s="79">
         <v>0</v>
@@ -2476,40 +2227,38 @@
         <v>18</v>
       </c>
       <c r="D11" s="76">
-        <v>2588163</v>
+        <v>12938938</v>
       </c>
       <c r="E11" s="76">
-        <v>2074636</v>
+        <v>9060672</v>
       </c>
       <c r="F11" s="76">
-        <v>266388</v>
+        <v>1477965</v>
       </c>
       <c r="G11" s="77">
         <v>0</v>
       </c>
       <c r="H11" s="34">
-        <v>8.7200000000000006</v>
+        <v>9.07</v>
       </c>
       <c r="I11" s="77">
         <v>0</v>
       </c>
       <c r="J11" s="34">
-        <v>0.25</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="K11" s="77">
-        <v>0</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>44</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="77">
+        <v>0</v>
       </c>
       <c r="N11" s="78">
-        <v>685649</v>
+        <v>3763661</v>
       </c>
       <c r="O11" s="79">
-        <v>1783545</v>
+        <v>9186392</v>
       </c>
       <c r="P11" s="79">
         <v>0</v>
@@ -2521,40 +2270,40 @@
         <v>24</v>
       </c>
       <c r="D12" s="76">
-        <v>3429439</v>
+        <v>16748580</v>
       </c>
       <c r="E12" s="76">
-        <v>2791400</v>
+        <v>11984597</v>
       </c>
       <c r="F12" s="76">
-        <v>252459</v>
+        <v>1690119</v>
       </c>
       <c r="G12" s="77">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="H12" s="34">
-        <v>9.7799999999999994</v>
+        <v>10.29</v>
       </c>
       <c r="I12" s="77">
         <v>0</v>
       </c>
       <c r="J12" s="34">
-        <v>0.2</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="K12" s="77">
         <v>0</v>
       </c>
       <c r="L12" s="34">
-        <v>5.36</v>
+        <v>5.63</v>
       </c>
       <c r="M12" s="77">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="N12" s="78">
-        <v>612775</v>
+        <v>3363638</v>
       </c>
       <c r="O12" s="79">
-        <v>1659960</v>
+        <v>8549848</v>
       </c>
       <c r="P12" s="79">
         <v>0</v>
@@ -2566,40 +2315,40 @@
         <v>36</v>
       </c>
       <c r="D13" s="76">
-        <v>5941988</v>
+        <v>29433224</v>
       </c>
       <c r="E13" s="76">
-        <v>5085528</v>
+        <v>23164588</v>
       </c>
       <c r="F13" s="76">
-        <v>325574</v>
+        <v>1908930</v>
       </c>
       <c r="G13" s="77">
         <v>0</v>
       </c>
       <c r="H13" s="34">
-        <v>11.97</v>
+        <v>12.59</v>
       </c>
       <c r="I13" s="77">
         <v>0</v>
       </c>
       <c r="J13" s="34">
-        <v>0.12</v>
+        <v>0.1188</v>
       </c>
       <c r="K13" s="77">
         <v>0</v>
       </c>
       <c r="L13" s="34">
-        <v>6.57</v>
+        <v>6.9</v>
       </c>
       <c r="M13" s="77">
         <v>0</v>
       </c>
       <c r="N13" s="78">
-        <v>456847</v>
+        <v>2507724</v>
       </c>
       <c r="O13" s="79">
-        <v>1400441</v>
+        <v>7213161</v>
       </c>
       <c r="P13" s="79">
         <v>0</v>
@@ -2611,40 +2360,40 @@
         <v>48</v>
       </c>
       <c r="D14" s="80">
-        <v>8737993</v>
+        <v>42135677</v>
       </c>
       <c r="E14" s="80">
-        <v>7709942</v>
+        <v>34509244</v>
       </c>
       <c r="F14" s="80">
-        <v>305970</v>
+        <v>1827574</v>
       </c>
       <c r="G14" s="81">
         <v>0</v>
       </c>
       <c r="H14" s="36">
-        <v>13.05</v>
+        <v>12.82</v>
       </c>
       <c r="I14" s="81">
         <v>0</v>
       </c>
       <c r="J14" s="36">
-        <v>7.0000000000000007E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="K14" s="81">
         <v>0</v>
       </c>
       <c r="L14" s="36">
-        <v>7.18</v>
+        <v>7.05</v>
       </c>
       <c r="M14" s="81">
         <v>0</v>
       </c>
       <c r="N14" s="82">
-        <v>286293</v>
+        <v>1571519</v>
       </c>
       <c r="O14" s="79">
-        <v>1123541</v>
+        <v>5786954</v>
       </c>
       <c r="P14" s="79">
         <v>0</v>
@@ -2655,40 +2404,40 @@
         <v>60</v>
       </c>
       <c r="D15" s="79">
-        <v>11376253</v>
+        <v>53998532</v>
       </c>
       <c r="E15" s="79">
-        <v>10238259</v>
+        <v>45517951</v>
       </c>
       <c r="F15" s="79">
-        <v>296428</v>
+        <v>1810790</v>
       </c>
       <c r="G15" s="83">
         <v>0</v>
       </c>
       <c r="H15" s="34">
-        <v>18.89</v>
+        <v>19.14</v>
       </c>
       <c r="I15" s="83">
         <v>0</v>
       </c>
       <c r="J15" s="34">
-        <v>0.02</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="K15" s="83">
         <v>0</v>
       </c>
       <c r="L15" s="34">
-        <v>8.56</v>
+        <v>8.57</v>
       </c>
       <c r="M15" s="83">
         <v>0</v>
       </c>
       <c r="N15" s="79">
-        <v>99740</v>
+        <v>547492</v>
       </c>
       <c r="O15" s="79">
-        <v>828098</v>
+        <v>4265230</v>
       </c>
       <c r="P15" s="79">
         <v>0</v>
@@ -2696,7 +2445,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2710,7 +2459,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
@@ -2730,10 +2479,10 @@
     <col min="14" max="14" width="2.7109375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
@@ -2760,7 +2509,7 @@
     <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2770,37 +2519,37 @@
       <c r="A8" s="14"/>
       <c r="B8" s="51"/>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8" s="53"/>
     </row>
@@ -2825,34 +2574,34 @@
         <v>12</v>
       </c>
       <c r="D10" s="76">
-        <v>1496849</v>
+        <v>6957337</v>
       </c>
       <c r="E10" s="76">
-        <v>1111728</v>
+        <v>4070125</v>
       </c>
       <c r="F10" s="76">
-        <v>193683</v>
+        <v>1247059</v>
       </c>
       <c r="G10" s="77">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H10" s="37">
-        <v>6.6215999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="I10" s="77">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J10" s="84">
-        <v>0.35360000000000003</v>
+        <v>0.3543</v>
       </c>
       <c r="K10" s="77">
-        <v>0</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="L10" s="37">
-        <v>4.5503999999999998</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="M10" s="77">
-        <v>0</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="O10" s="23"/>
     </row>
@@ -2862,32 +2611,30 @@
         <v>18</v>
       </c>
       <c r="D11" s="76">
-        <v>2588163</v>
+        <v>12938938</v>
       </c>
       <c r="E11" s="76">
-        <v>2074636</v>
+        <v>9060672</v>
       </c>
       <c r="F11" s="76">
-        <v>266388</v>
+        <v>1477965</v>
       </c>
       <c r="G11" s="77">
         <v>0</v>
       </c>
       <c r="H11" s="37">
-        <v>8.7248999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="I11" s="77">
         <v>0</v>
       </c>
       <c r="J11" s="84">
-        <v>0.24859999999999999</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="K11" s="77">
-        <v>0</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0</v>
-      </c>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="37"/>
       <c r="M11" s="77">
         <v>0</v>
       </c>
@@ -2899,34 +2646,34 @@
         <v>24</v>
       </c>
       <c r="D12" s="76">
-        <v>3429439</v>
+        <v>16748580</v>
       </c>
       <c r="E12" s="76">
-        <v>2791400</v>
+        <v>11984597</v>
       </c>
       <c r="F12" s="76">
-        <v>252459</v>
+        <v>1690119</v>
       </c>
       <c r="G12" s="77">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="H12" s="37">
-        <v>9.7754999999999992</v>
+        <v>10.29</v>
       </c>
       <c r="I12" s="77">
         <v>0</v>
       </c>
       <c r="J12" s="84">
-        <v>0.19789999999999999</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="K12" s="77">
         <v>0</v>
       </c>
       <c r="L12" s="37">
-        <v>5.3573000000000004</v>
+        <v>5.63</v>
       </c>
       <c r="M12" s="77">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="O12" s="23"/>
     </row>
@@ -2936,31 +2683,31 @@
         <v>36</v>
       </c>
       <c r="D13" s="76">
-        <v>5941988</v>
+        <v>29433224</v>
       </c>
       <c r="E13" s="76">
-        <v>5085528</v>
+        <v>23164588</v>
       </c>
       <c r="F13" s="76">
-        <v>325574</v>
+        <v>1908930</v>
       </c>
       <c r="G13" s="77">
         <v>0</v>
       </c>
       <c r="H13" s="37">
-        <v>11.967700000000001</v>
+        <v>12.59</v>
       </c>
       <c r="I13" s="77">
         <v>0</v>
       </c>
       <c r="J13" s="84">
-        <v>0.1201</v>
+        <v>0.1188</v>
       </c>
       <c r="K13" s="77">
         <v>0</v>
       </c>
       <c r="L13" s="37">
-        <v>6.5704000000000002</v>
+        <v>6.9</v>
       </c>
       <c r="M13" s="77">
         <v>0</v>
@@ -2973,31 +2720,31 @@
         <v>48</v>
       </c>
       <c r="D14" s="76">
-        <v>8737993</v>
+        <v>42135677</v>
       </c>
       <c r="E14" s="76">
-        <v>7709942</v>
+        <v>34509244</v>
       </c>
       <c r="F14" s="76">
-        <v>305970</v>
+        <v>1827574</v>
       </c>
       <c r="G14" s="77">
         <v>0</v>
       </c>
       <c r="H14" s="37">
-        <v>13.0517</v>
+        <v>12.82</v>
       </c>
       <c r="I14" s="77">
         <v>0</v>
       </c>
       <c r="J14" s="84">
-        <v>6.8699999999999997E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="K14" s="77">
         <v>0</v>
       </c>
       <c r="L14" s="37">
-        <v>7.1795</v>
+        <v>7.05</v>
       </c>
       <c r="M14" s="77">
         <v>0</v>
@@ -3010,31 +2757,31 @@
         <v>60</v>
       </c>
       <c r="D15" s="76">
-        <v>11376253</v>
+        <v>53998532</v>
       </c>
       <c r="E15" s="76">
-        <v>10238259</v>
+        <v>45517951</v>
       </c>
       <c r="F15" s="76">
-        <v>296428</v>
+        <v>1810790</v>
       </c>
       <c r="G15" s="77">
         <v>0</v>
       </c>
       <c r="H15" s="37">
-        <v>18.890499999999999</v>
+        <v>19.14</v>
       </c>
       <c r="I15" s="77">
         <v>0</v>
       </c>
       <c r="J15" s="84">
-        <v>2.4400000000000002E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="K15" s="77">
         <v>0</v>
       </c>
       <c r="L15" s="37">
-        <v>8.5620999999999992</v>
+        <v>8.57</v>
       </c>
       <c r="M15" s="77">
         <v>0</v>
@@ -3072,7 +2819,7 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3085,7 +2832,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A2:E105"/>
@@ -3105,7 +2852,7 @@
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -3121,7 +2868,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3130,7 +2877,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>3</v>
@@ -3141,10 +2888,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -3163,13 +2910,13 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="40"/>
     </row>
@@ -3182,124 +2929,124 @@
         <v>12</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="42">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="42">
-        <v>0.06</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="48">
-        <v>298292</v>
+        <v>1814068</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="47">
         <v>9</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="40"/>
     </row>
@@ -3313,7 +3060,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="40"/>
@@ -3322,7 +3069,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>3</v>
@@ -3336,7 +3083,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="44">
-        <v>2354366</v>
+        <v>15198037</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -3344,10 +3091,10 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="44">
-        <v>321706</v>
+        <v>2159643</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -3358,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="46">
-        <v>186560</v>
+        <v>1229759</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -3366,10 +3113,10 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -3384,39 +3131,39 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="44">
-        <v>675678</v>
+        <v>4589842</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="44">
-        <v>1639307</v>
+        <v>11041428</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="44">
-        <v>331890</v>
+        <v>2324878</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="40"/>
     </row>
@@ -3430,26 +3177,26 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="44">
-        <v>78869</v>
+        <v>494939</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="44">
-        <v>5299</v>
+        <v>35661</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="40"/>
     </row>
@@ -3463,7 +3210,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="40"/>
@@ -3472,10 +3219,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="60"/>
       <c r="E35" s="40"/>
@@ -3483,7 +3230,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="40"/>
@@ -3492,10 +3239,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="44">
-        <v>2300079</v>
+        <v>15235107</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -3503,10 +3250,10 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="44">
-        <v>206882</v>
+        <v>1313535</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -3521,7 +3268,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="40"/>
@@ -3530,10 +3277,10 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="44">
-        <v>1153885</v>
+        <v>8083716</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -3541,23 +3288,23 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="44">
-        <v>486600</v>
+        <v>3593907</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="44">
-        <v>173393</v>
+        <v>1235662</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -3565,26 +3312,26 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="44">
-        <v>313187</v>
+        <v>2143760</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="44">
-        <v>349961</v>
+        <v>2143965</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" s="40"/>
     </row>
@@ -3598,7 +3345,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="40"/>
@@ -3607,7 +3354,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="49" t="s">
         <v>3</v>
@@ -3618,23 +3365,23 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="44">
-        <v>2833923</v>
+        <v>20174169</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
@@ -3642,52 +3389,52 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="47">
         <v>0.2</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="47">
         <v>200</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E54" s="40"/>
     </row>
@@ -3701,39 +3448,39 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C57" s="47">
         <v>0.15</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58" s="40"/>
     </row>
@@ -3747,7 +3494,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
@@ -3759,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" s="60"/>
       <c r="E61" s="40"/>
@@ -3767,78 +3514,78 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E67" s="40"/>
     </row>
@@ -3852,7 +3599,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" s="47"/>
       <c r="D69" s="40"/>
@@ -3861,7 +3608,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="49" t="s">
         <v>3</v>
@@ -3872,10 +3619,10 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" s="44">
-        <v>194737</v>
+        <v>1297706</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
@@ -3883,49 +3630,49 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" s="44">
-        <v>593844</v>
+        <v>3786178</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" s="44">
-        <v>510009</v>
+        <v>3449066</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -3933,10 +3680,10 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
@@ -3944,39 +3691,39 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E79" s="40"/>
     </row>
@@ -3990,7 +3737,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
@@ -3999,7 +3746,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" s="49" t="s">
         <v>3</v>
@@ -4010,23 +3757,23 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
@@ -4034,10 +3781,10 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
@@ -4045,26 +3792,26 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E87" s="40"/>
     </row>
@@ -4078,7 +3825,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89" s="47"/>
       <c r="D89" s="40"/>
@@ -4087,7 +3834,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C90" s="47"/>
       <c r="D90" s="40"/>
@@ -4096,7 +3843,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C91" s="47"/>
       <c r="D91" s="40"/>
@@ -4105,7 +3852,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" s="47"/>
       <c r="D92" s="40"/>
@@ -4114,7 +3861,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" s="40"/>
       <c r="D93" s="40"/>
@@ -4123,7 +3870,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" s="40"/>
       <c r="D94" s="40"/>
@@ -4132,7 +3879,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
@@ -4141,7 +3888,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96" s="40"/>
       <c r="D96" s="40"/>
@@ -4164,7 +3911,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C99" s="40"/>
       <c r="D99" s="40"/>
@@ -4173,7 +3920,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C100" s="40"/>
       <c r="D100" s="40"/>
@@ -4181,27 +3928,27 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +3958,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A2:C8"/>
@@ -4227,46 +3974,46 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="87"/>
     </row>
     <row r="6" spans="2:3" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Monte Carlo/outputs/Monte Carlo Model 60 Months.xlsx
+++ b/Monte Carlo/outputs/Monte Carlo Model 60 Months.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Personal\Github\Monte Carlo\Monte Carlo\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5451D808-B89A-4907-9575-712E127E42D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB6680-4BCB-4972-AD13-429C8DCDA8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Executive Summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="209">
   <si>
     <t>Monte Carlo Debt Analysis – Executive Summary</t>
   </si>
@@ -640,13 +640,38 @@
   </si>
   <si>
     <t>Lender Term Sheet &amp; Lender Correspondence</t>
+  </si>
+  <si>
+    <t>Required Monthly Change to Cure (P5 = reduce breach to ≤5%)</t>
+  </si>
+  <si>
+    <t>Covenant – Cure Action</t>
+  </si>
+  <si>
+    <t>Funded Debt / EBITDA – Mo. Rev Increase</t>
+  </si>
+  <si>
+    <t>Funded Debt / EBITDA – Mo. Exp Decrease</t>
+  </si>
+  <si>
+    <t>Global DSCR – Monthly Revenue Increase</t>
+  </si>
+  <si>
+    <t>Global DSCR – Monthly Expense Decrease</t>
+  </si>
+  <si>
+    <t>Required Monthly Change to Cure (P0 = eliminate all breaches)</t>
+  </si>
+  <si>
+    <t>** Modeling indicates breach probability is in the first 12 months, remaining compliant in future assessment intervals due to adequate cash flow.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -656,8 +681,9 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.00\x"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="\$#,##0;\(\$#,##0\);&quot;-&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,12 +777,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI Variable Display"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -815,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1083,6 +1103,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1090,7 +1170,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1130,60 +1210,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,21 +1275,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,43 +1312,74 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1665,398 +1772,732 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:M29"/>
+  <dimension ref="A2:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="50" customWidth="1"/>
-    <col min="6" max="10" width="26" style="50" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="48" customWidth="1"/>
+    <col min="6" max="10" width="26" style="48" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" s="14" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="2:12" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="7" t="s">
+    <row r="2" spans="2:13" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="2:13" s="14" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:13" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="55" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D7" s="60">
         <v>15562092</v>
       </c>
-      <c r="E8" s="63"/>
-    </row>
-    <row r="9" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="55" t="s">
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D8" s="60">
         <v>2239006</v>
       </c>
-      <c r="E9" s="63"/>
-    </row>
-    <row r="10" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="55" t="s">
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="53" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="60">
+        <v>1234513</v>
+      </c>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="53" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="62">
-        <v>1234513</v>
-      </c>
-      <c r="E10" s="63"/>
-    </row>
-    <row r="11" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="64">
         <v>981509</v>
       </c>
-      <c r="E11" s="63"/>
-    </row>
-    <row r="12" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="55" t="s">
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D11" s="63">
         <v>10000</v>
       </c>
-      <c r="E12" s="63"/>
-    </row>
-    <row r="13" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="55" t="s">
+      <c r="E11" s="61"/>
+    </row>
+    <row r="12" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="63"/>
-    </row>
-    <row r="14" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="55" t="s">
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="7" t="s">
+    <row r="14" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="4" t="s">
+    <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="68"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="55">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G17" s="55">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H17" s="55">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="I17" s="55">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="J17" s="55">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="K17" s="56">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="L17" s="69"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="57">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="G18" s="57">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="H18" s="57">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="I18" s="57">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="J18" s="57">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="K18" s="58">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="L18" s="71"/>
+      <c r="C18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="55">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="G18" s="55">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="H18" s="55">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="I18" s="55">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="J18" s="55">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="K18" s="56">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="L18" s="69"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="57">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="G19" s="57">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="H19" s="57">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="I19" s="57">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="J19" s="57">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="K19" s="58">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="L19" s="71"/>
+      <c r="C19" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="55">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="J19" s="55">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="K19" s="56">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="L19" s="69"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="57">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="G20" s="57">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="H20" s="57">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="I20" s="57">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="J20" s="57">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="K20" s="58">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="L20" s="71"/>
+      <c r="C20" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="55">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="G20" s="55">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="H20" s="55">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I20" s="55">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="J20" s="55">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="K20" s="56">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="L20" s="69"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="57">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="G21" s="57">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="H21" s="57">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="I21" s="57">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="J21" s="57">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="K21" s="58">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="L21" s="71"/>
+      <c r="C21" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="55">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="G21" s="55">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H21" s="55">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="I21" s="55">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="J21" s="55">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="K21" s="56">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="L21" s="69"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="57">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="G22" s="57">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="H22" s="57">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="I22" s="57">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="J22" s="57">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="K22" s="58">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="L22" s="71"/>
+      <c r="C22" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="55">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G22" s="55">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="H22" s="55">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I22" s="55">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="J22" s="55">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="K22" s="85">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L22" s="86"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="57">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="G23" s="57">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="H23" s="57">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="I23" s="57">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="J23" s="57">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="K23" s="58">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="L23" s="71"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="57">
-        <v>0</v>
-      </c>
-      <c r="G24" s="57">
-        <v>0</v>
-      </c>
-      <c r="H24" s="57">
-        <v>0</v>
-      </c>
-      <c r="I24" s="57">
-        <v>0</v>
-      </c>
-      <c r="J24" s="57">
-        <v>0</v>
-      </c>
-      <c r="K24" s="58">
-        <v>0</v>
-      </c>
-      <c r="L24" s="71"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="86">
+        <v>0</v>
+      </c>
+      <c r="G24" s="86">
+        <v>0</v>
+      </c>
+      <c r="H24" s="86">
+        <v>0</v>
+      </c>
+      <c r="I24" s="93">
+        <v>0</v>
+      </c>
+      <c r="J24" s="93">
+        <v>0</v>
+      </c>
+      <c r="K24" s="93">
+        <v>0</v>
+      </c>
+      <c r="L24" s="69"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="54"/>
-      <c r="D26" s="73"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="54" t="s">
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C27" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="6"/>
+      <c r="C28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="53"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="96">
+        <v>0</v>
+      </c>
+      <c r="G30" s="96">
+        <v>0</v>
+      </c>
+      <c r="H30" s="96">
+        <v>0</v>
+      </c>
+      <c r="I30" s="96">
+        <v>0</v>
+      </c>
+      <c r="J30" s="97">
+        <v>0</v>
+      </c>
+      <c r="K30" s="97">
+        <v>0</v>
+      </c>
+      <c r="L30" s="95"/>
+      <c r="M30" s="48"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="96">
+        <v>0</v>
+      </c>
+      <c r="G31" s="96">
+        <v>0</v>
+      </c>
+      <c r="H31" s="96">
+        <v>0</v>
+      </c>
+      <c r="I31" s="96">
+        <v>0</v>
+      </c>
+      <c r="J31" s="97">
+        <v>0</v>
+      </c>
+      <c r="K31" s="97">
+        <v>0</v>
+      </c>
+      <c r="L31" s="69"/>
+      <c r="M31" s="48"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="96">
+        <v>28786</v>
+      </c>
+      <c r="G32" s="96">
+        <v>28786</v>
+      </c>
+      <c r="H32" s="96">
+        <v>28832</v>
+      </c>
+      <c r="I32" s="96">
+        <v>28832</v>
+      </c>
+      <c r="J32" s="97">
+        <v>28832</v>
+      </c>
+      <c r="K32" s="97">
+        <v>28832</v>
+      </c>
+      <c r="L32" s="95"/>
+      <c r="M32" s="48"/>
+    </row>
+    <row r="33" spans="1:13" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="96">
+        <v>26654</v>
+      </c>
+      <c r="G33" s="96">
+        <v>26654</v>
+      </c>
+      <c r="H33" s="96">
+        <v>26747</v>
+      </c>
+      <c r="I33" s="96">
+        <v>26747</v>
+      </c>
+      <c r="J33" s="97">
+        <v>26747</v>
+      </c>
+      <c r="K33" s="97">
+        <v>26747</v>
+      </c>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:13" s="48" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="12"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="29"/>
+    </row>
+    <row r="35" spans="1:13" s="48" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="6"/>
+      <c r="C37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="53"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="69"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="48"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="96">
+        <v>0</v>
+      </c>
+      <c r="G39" s="96">
+        <v>0</v>
+      </c>
+      <c r="H39" s="96">
+        <v>0</v>
+      </c>
+      <c r="I39" s="96">
+        <v>0</v>
+      </c>
+      <c r="J39" s="97">
+        <v>0</v>
+      </c>
+      <c r="K39" s="97">
+        <v>0</v>
+      </c>
+      <c r="L39" s="98"/>
+      <c r="M39" s="48"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="96">
+        <v>0</v>
+      </c>
+      <c r="G40" s="96">
+        <v>0</v>
+      </c>
+      <c r="H40" s="96">
+        <v>0</v>
+      </c>
+      <c r="I40" s="96">
+        <v>0</v>
+      </c>
+      <c r="J40" s="97">
+        <v>0</v>
+      </c>
+      <c r="K40" s="97">
+        <v>0</v>
+      </c>
+      <c r="L40" s="96"/>
+      <c r="M40" s="48"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="96">
+        <v>199457</v>
+      </c>
+      <c r="G41" s="96">
+        <v>199457</v>
+      </c>
+      <c r="H41" s="96">
+        <v>199457</v>
+      </c>
+      <c r="I41" s="96">
+        <v>199457</v>
+      </c>
+      <c r="J41" s="97">
+        <v>199457</v>
+      </c>
+      <c r="K41" s="97">
+        <v>199457</v>
+      </c>
+      <c r="L41" s="98"/>
+      <c r="M41" s="48"/>
+    </row>
+    <row r="42" spans="1:13" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="C42" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="96">
+        <v>178159</v>
+      </c>
+      <c r="G42" s="96">
+        <v>178159</v>
+      </c>
+      <c r="H42" s="96">
+        <v>178159</v>
+      </c>
+      <c r="I42" s="96">
+        <v>178159</v>
+      </c>
+      <c r="J42" s="97">
+        <v>178159</v>
+      </c>
+      <c r="K42" s="97">
+        <v>178159</v>
+      </c>
+      <c r="L42" s="96"/>
+    </row>
+    <row r="43" spans="1:13" s="48" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="12"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C45" s="52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="27"/>
+    <row r="46" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C46" s="52" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2072,10 +2513,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="7" style="50" customWidth="1"/>
-    <col min="4" max="13" width="18.7109375" style="50" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="7" style="48" customWidth="1"/>
+    <col min="4" max="13" width="18.7109375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="14" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2151,295 +2592,295 @@
       <c r="M8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="75"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="75"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="75"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
-      <c r="C10" s="33">
+      <c r="C10" s="31">
         <v>12</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="73">
         <v>6957337</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="73">
         <v>4070125</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="73">
         <v>1247059</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="74">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="32">
         <v>6.87</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="74">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>0.3543</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="74">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="32">
         <v>4.6900000000000004</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="74">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="N10" s="78">
+      <c r="N10" s="75">
         <v>4146147</v>
       </c>
-      <c r="O10" s="79">
+      <c r="O10" s="76">
         <v>9802634</v>
       </c>
-      <c r="P10" s="79">
+      <c r="P10" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <v>18</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="73">
         <v>12938938</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="73">
         <v>9060672</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="73">
         <v>1477965</v>
       </c>
-      <c r="G11" s="77">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="G11" s="74">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
         <v>9.07</v>
       </c>
-      <c r="I11" s="77">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34">
+      <c r="I11" s="74">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
         <v>0.24879999999999999</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="74">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="77">
-        <v>0</v>
-      </c>
-      <c r="N11" s="78">
+      <c r="L11" s="32"/>
+      <c r="M11" s="74">
+        <v>0</v>
+      </c>
+      <c r="N11" s="75">
         <v>3763661</v>
       </c>
-      <c r="O11" s="79">
+      <c r="O11" s="76">
         <v>9186392</v>
       </c>
-      <c r="P11" s="79">
+      <c r="P11" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <v>24</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="73">
         <v>16748580</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="73">
         <v>11984597</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="73">
         <v>1690119</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="74">
         <v>1E-4</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="32">
         <v>10.29</v>
       </c>
-      <c r="I12" s="77">
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
+      <c r="I12" s="74">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32">
         <v>0.19570000000000001</v>
       </c>
-      <c r="K12" s="77">
-        <v>0</v>
-      </c>
-      <c r="L12" s="34">
+      <c r="K12" s="74">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
         <v>5.63</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="74">
         <v>1E-4</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N12" s="75">
         <v>3363638</v>
       </c>
-      <c r="O12" s="79">
+      <c r="O12" s="76">
         <v>8549848</v>
       </c>
-      <c r="P12" s="79">
+      <c r="P12" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>36</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="73">
         <v>29433224</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="73">
         <v>23164588</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="73">
         <v>1908930</v>
       </c>
-      <c r="G13" s="77">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
+      <c r="G13" s="74">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
         <v>12.59</v>
       </c>
-      <c r="I13" s="77">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34">
+      <c r="I13" s="74">
+        <v>0</v>
+      </c>
+      <c r="J13" s="32">
         <v>0.1188</v>
       </c>
-      <c r="K13" s="77">
-        <v>0</v>
-      </c>
-      <c r="L13" s="34">
+      <c r="K13" s="74">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
         <v>6.9</v>
       </c>
-      <c r="M13" s="77">
-        <v>0</v>
-      </c>
-      <c r="N13" s="78">
+      <c r="M13" s="74">
+        <v>0</v>
+      </c>
+      <c r="N13" s="75">
         <v>2507724</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="76">
         <v>7213161</v>
       </c>
-      <c r="P13" s="79">
+      <c r="P13" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>48</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="77">
         <v>42135677</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="77">
         <v>34509244</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="77">
         <v>1827574</v>
       </c>
-      <c r="G14" s="81">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
+      <c r="G14" s="78">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
         <v>12.82</v>
       </c>
-      <c r="I14" s="81">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="I14" s="78">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="K14" s="81">
-        <v>0</v>
-      </c>
-      <c r="L14" s="36">
+      <c r="K14" s="78">
+        <v>0</v>
+      </c>
+      <c r="L14" s="34">
         <v>7.05</v>
       </c>
-      <c r="M14" s="81">
-        <v>0</v>
-      </c>
-      <c r="N14" s="82">
+      <c r="M14" s="78">
+        <v>0</v>
+      </c>
+      <c r="N14" s="79">
         <v>1571519</v>
       </c>
-      <c r="O14" s="79">
+      <c r="O14" s="76">
         <v>5786954</v>
       </c>
-      <c r="P14" s="79">
+      <c r="P14" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <v>60</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="76">
         <v>53998532</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="76">
         <v>45517951</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="76">
         <v>1810790</v>
       </c>
-      <c r="G15" s="83">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
+      <c r="G15" s="80">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
         <v>19.14</v>
       </c>
-      <c r="I15" s="83">
-        <v>0</v>
-      </c>
-      <c r="J15" s="34">
+      <c r="I15" s="80">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="K15" s="83">
-        <v>0</v>
-      </c>
-      <c r="L15" s="34">
+      <c r="K15" s="80">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
         <v>8.57</v>
       </c>
-      <c r="M15" s="83">
-        <v>0</v>
-      </c>
-      <c r="N15" s="79">
+      <c r="M15" s="80">
+        <v>0</v>
+      </c>
+      <c r="N15" s="76">
         <v>547492</v>
       </c>
-      <c r="O15" s="79">
+      <c r="O15" s="76">
         <v>4265230</v>
       </c>
-      <c r="P15" s="79">
+      <c r="P15" s="76">
         <v>0</v>
       </c>
     </row>
@@ -2462,368 +2903,369 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A2:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="50" customWidth="1"/>
-    <col min="4" max="8" width="18.7109375" style="50" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="50" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="50" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="50" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="50" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="48" customWidth="1"/>
+    <col min="4" max="8" width="18.7109375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="48" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" s="14" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14"/>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
-      <c r="C6" s="7" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="4" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J7" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="72"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="75"/>
+      <c r="C9" s="31">
+        <v>12</v>
+      </c>
+      <c r="D9" s="73">
+        <v>6957337</v>
+      </c>
+      <c r="E9" s="73">
+        <v>4070125</v>
+      </c>
+      <c r="F9" s="73">
+        <v>1247059</v>
+      </c>
+      <c r="G9" s="74">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H9" s="35">
+        <v>6.87</v>
+      </c>
+      <c r="I9" s="74">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J9" s="81">
+        <v>0.3543</v>
+      </c>
+      <c r="K9" s="74">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="L9" s="35">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="M9" s="74">
+        <v>7.9299999999999995E-2</v>
+      </c>
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
-      <c r="C10" s="33">
-        <v>12</v>
-      </c>
-      <c r="D10" s="76">
-        <v>6957337</v>
-      </c>
-      <c r="E10" s="76">
-        <v>4070125</v>
-      </c>
-      <c r="F10" s="76">
-        <v>1247059</v>
-      </c>
-      <c r="G10" s="77">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H10" s="37">
-        <v>6.87</v>
-      </c>
-      <c r="I10" s="77">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J10" s="84">
-        <v>0.3543</v>
-      </c>
-      <c r="K10" s="77">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="L10" s="37">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="M10" s="77">
-        <v>7.9299999999999995E-2</v>
+      <c r="C10" s="31">
+        <v>18</v>
+      </c>
+      <c r="D10" s="73">
+        <v>12938938</v>
+      </c>
+      <c r="E10" s="73">
+        <v>9060672</v>
+      </c>
+      <c r="F10" s="73">
+        <v>1477965</v>
+      </c>
+      <c r="G10" s="74">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
+        <v>9.07</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0</v>
+      </c>
+      <c r="J10" s="81">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="K10" s="74">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="74">
+        <v>0</v>
       </c>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
-      <c r="C11" s="33">
-        <v>18</v>
-      </c>
-      <c r="D11" s="76">
-        <v>12938938</v>
-      </c>
-      <c r="E11" s="76">
-        <v>9060672</v>
-      </c>
-      <c r="F11" s="76">
-        <v>1477965</v>
-      </c>
-      <c r="G11" s="77">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37">
-        <v>9.07</v>
-      </c>
-      <c r="I11" s="77">
-        <v>0</v>
-      </c>
-      <c r="J11" s="84">
-        <v>0.24879999999999999</v>
-      </c>
-      <c r="K11" s="77">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="77">
-        <v>0</v>
+      <c r="C11" s="31">
+        <v>24</v>
+      </c>
+      <c r="D11" s="73">
+        <v>16748580</v>
+      </c>
+      <c r="E11" s="73">
+        <v>11984597</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1690119</v>
+      </c>
+      <c r="G11" s="74">
+        <v>1E-4</v>
+      </c>
+      <c r="H11" s="35">
+        <v>10.29</v>
+      </c>
+      <c r="I11" s="74">
+        <v>0</v>
+      </c>
+      <c r="J11" s="81">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="K11" s="74">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
+        <v>5.63</v>
+      </c>
+      <c r="M11" s="74">
+        <v>1E-4</v>
       </c>
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
-      <c r="C12" s="33">
-        <v>24</v>
-      </c>
-      <c r="D12" s="76">
-        <v>16748580</v>
-      </c>
-      <c r="E12" s="76">
-        <v>11984597</v>
-      </c>
-      <c r="F12" s="76">
-        <v>1690119</v>
-      </c>
-      <c r="G12" s="77">
-        <v>1E-4</v>
-      </c>
-      <c r="H12" s="37">
-        <v>10.29</v>
-      </c>
-      <c r="I12" s="77">
-        <v>0</v>
-      </c>
-      <c r="J12" s="84">
-        <v>0.19570000000000001</v>
-      </c>
-      <c r="K12" s="77">
-        <v>0</v>
-      </c>
-      <c r="L12" s="37">
-        <v>5.63</v>
-      </c>
-      <c r="M12" s="77">
-        <v>1E-4</v>
+      <c r="C12" s="31">
+        <v>36</v>
+      </c>
+      <c r="D12" s="73">
+        <v>29433224</v>
+      </c>
+      <c r="E12" s="73">
+        <v>23164588</v>
+      </c>
+      <c r="F12" s="73">
+        <v>1908930</v>
+      </c>
+      <c r="G12" s="74">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>12.59</v>
+      </c>
+      <c r="I12" s="74">
+        <v>0</v>
+      </c>
+      <c r="J12" s="81">
+        <v>0.1188</v>
+      </c>
+      <c r="K12" s="74">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>6.9</v>
+      </c>
+      <c r="M12" s="74">
+        <v>0</v>
       </c>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
-      <c r="C13" s="33">
-        <v>36</v>
-      </c>
-      <c r="D13" s="76">
-        <v>29433224</v>
-      </c>
-      <c r="E13" s="76">
-        <v>23164588</v>
-      </c>
-      <c r="F13" s="76">
-        <v>1908930</v>
-      </c>
-      <c r="G13" s="77">
-        <v>0</v>
-      </c>
-      <c r="H13" s="37">
-        <v>12.59</v>
-      </c>
-      <c r="I13" s="77">
-        <v>0</v>
-      </c>
-      <c r="J13" s="84">
-        <v>0.1188</v>
-      </c>
-      <c r="K13" s="77">
-        <v>0</v>
-      </c>
-      <c r="L13" s="37">
-        <v>6.9</v>
-      </c>
-      <c r="M13" s="77">
+      <c r="C13" s="31">
+        <v>48</v>
+      </c>
+      <c r="D13" s="73">
+        <v>42135677</v>
+      </c>
+      <c r="E13" s="73">
+        <v>34509244</v>
+      </c>
+      <c r="F13" s="73">
+        <v>1827574</v>
+      </c>
+      <c r="G13" s="74">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <v>12.82</v>
+      </c>
+      <c r="I13" s="74">
+        <v>0</v>
+      </c>
+      <c r="J13" s="81">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="K13" s="74">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35">
+        <v>7.05</v>
+      </c>
+      <c r="M13" s="74">
         <v>0</v>
       </c>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="C14" s="33">
-        <v>48</v>
-      </c>
-      <c r="D14" s="76">
-        <v>42135677</v>
-      </c>
-      <c r="E14" s="76">
-        <v>34509244</v>
-      </c>
-      <c r="F14" s="76">
-        <v>1827574</v>
-      </c>
-      <c r="G14" s="77">
-        <v>0</v>
-      </c>
-      <c r="H14" s="37">
-        <v>12.82</v>
-      </c>
-      <c r="I14" s="77">
-        <v>0</v>
-      </c>
-      <c r="J14" s="84">
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="K14" s="77">
-        <v>0</v>
-      </c>
-      <c r="L14" s="37">
-        <v>7.05</v>
-      </c>
-      <c r="M14" s="77">
+      <c r="C14" s="31">
+        <v>60</v>
+      </c>
+      <c r="D14" s="73">
+        <v>53998532</v>
+      </c>
+      <c r="E14" s="73">
+        <v>45517951</v>
+      </c>
+      <c r="F14" s="73">
+        <v>1810790</v>
+      </c>
+      <c r="G14" s="74">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
+        <v>19.14</v>
+      </c>
+      <c r="I14" s="74">
+        <v>0</v>
+      </c>
+      <c r="J14" s="81">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="K14" s="74">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35">
+        <v>8.57</v>
+      </c>
+      <c r="M14" s="74">
         <v>0</v>
       </c>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="33">
-        <v>60</v>
-      </c>
-      <c r="D15" s="76">
-        <v>53998532</v>
-      </c>
-      <c r="E15" s="76">
-        <v>45517951</v>
-      </c>
-      <c r="F15" s="76">
-        <v>1810790</v>
-      </c>
-      <c r="G15" s="77">
-        <v>0</v>
-      </c>
-      <c r="H15" s="37">
-        <v>19.14</v>
-      </c>
-      <c r="I15" s="77">
-        <v>0</v>
-      </c>
-      <c r="J15" s="84">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="K15" s="77">
-        <v>0</v>
-      </c>
-      <c r="L15" s="37">
-        <v>8.57</v>
-      </c>
-      <c r="M15" s="77">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="41"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="83"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="41" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="39"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="3:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
+    <row r="27" spans="3:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2841,1113 +3283,1113 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="35" style="50" customWidth="1"/>
-    <col min="3" max="3" width="28" style="50" customWidth="1"/>
-    <col min="4" max="4" width="40" style="50" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="2.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="35" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28" style="48" customWidth="1"/>
+    <col min="4" max="4" width="40" style="48" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="40">
         <v>0.1</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <v>0.12</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <v>1814068</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="45">
         <v>9</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="42">
         <v>15198037</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="42">
         <v>2159643</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="44">
         <v>1229759</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="42">
         <v>4589842</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="42">
         <v>11041428</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="42">
         <v>2324878</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="42">
         <v>494939</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="42">
         <v>35661</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="59" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="40"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="42">
         <v>15235107</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="42">
         <v>1313535</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="42">
         <v>8083716</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="42">
         <v>3593907</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="42">
         <v>1235662</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="42">
         <v>2143760</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="42">
         <v>2143965</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="39" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="59" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="40"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="42">
         <v>20174169</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="40"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="45">
         <v>0.2</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="45">
         <v>200</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="40"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="40"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="40"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="40"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="45">
         <v>0.15</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="39" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="40"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="40"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="40"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="40"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="40"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="40"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="40"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="40"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="44">
+      <c r="C71" s="42">
         <v>1297706</v>
       </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C72" s="42">
         <v>3786178</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="40"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="44">
+      <c r="C73" s="42">
         <v>3449066</v>
       </c>
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E73" s="40"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E74" s="40"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="E77" s="40"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="40"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40" t="s">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E79" s="40"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="39" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="40"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D83" s="43" t="s">
+      <c r="D83" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="40"/>
+      <c r="E83" s="38"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="47" t="s">
+      <c r="C85" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E86" s="40"/>
+      <c r="E86" s="38"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E87" s="40"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="39" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="43" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="43" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="43" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="43" t="s">
+      <c r="A94" s="38"/>
+      <c r="B94" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="43" t="s">
+      <c r="A96" s="38"/>
+      <c r="B96" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="39" t="s">
+      <c r="A99" s="38"/>
+      <c r="B99" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40" t="s">
+      <c r="A100" s="38"/>
+      <c r="B100" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="38" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="38" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="38" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="38" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="38" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3967,9 +4409,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="127" style="50" customWidth="1"/>
+    <col min="1" max="1" width="5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="127" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3979,40 +4421,40 @@
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="83" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="87"/>
+      <c r="C5" s="84"/>
     </row>
     <row r="6" spans="2:3" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="59" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="59" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="59" t="s">
         <v>200</v>
       </c>
     </row>
